--- a/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
+++ b/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albi/PycharmProjects/Flight-Dynamics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasvM\Desktop\Year 3 stuff\Project\svv_b2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3831D839-B3DF-4B61-B000-376A2DEBD106}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16260"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -207,39 +208,6 @@
   </si>
   <si>
     <t>Spiral</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>5.2</t>
   </si>
   <si>
     <t>5.3</t>
@@ -350,7 +318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -427,13 +395,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -448,24 +416,21 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -476,7 +441,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,6 +517,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -573,7 +541,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -886,25 +860,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>43171</v>
       </c>
       <c r="F3" t="s">
@@ -912,7 +886,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -924,13 +898,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -938,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -947,7 +921,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -956,7 +930,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -965,7 +939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -974,7 +948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -983,7 +957,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -992,7 +966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +975,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1010,7 +984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1019,7 +993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1027,12 +1001,12 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1040,7 +1014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1072,7 +1046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1101,12 +1075,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>99</v>
+      <c r="B28" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
@@ -1115,8 +1089,8 @@
       <c r="E28" s="2">
         <v>249</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>60</v>
+      <c r="F28" s="2">
+        <v>1.7</v>
       </c>
       <c r="G28" s="2">
         <v>798</v>
@@ -1127,16 +1101,16 @@
       <c r="I28" s="2">
         <v>360</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
@@ -1145,8 +1119,8 @@
       <c r="E29" s="2">
         <v>221</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>62</v>
+      <c r="F29" s="2">
+        <v>2.4</v>
       </c>
       <c r="G29" s="2">
         <v>673</v>
@@ -1157,16 +1131,16 @@
       <c r="I29" s="2">
         <v>412</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
@@ -1175,8 +1149,8 @@
       <c r="E30" s="2">
         <v>192</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>64</v>
+      <c r="F30" s="2">
+        <v>3.6</v>
       </c>
       <c r="G30" s="2">
         <v>561</v>
@@ -1187,16 +1161,16 @@
       <c r="I30" s="2">
         <v>447</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
@@ -1205,8 +1179,8 @@
       <c r="E31" s="2">
         <v>163</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>66</v>
+      <c r="F31" s="2">
+        <v>5.4</v>
       </c>
       <c r="G31" s="2">
         <v>463</v>
@@ -1217,16 +1191,16 @@
       <c r="I31" s="2">
         <v>478</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
@@ -1235,8 +1209,8 @@
       <c r="E32" s="2">
         <v>130</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>68</v>
+      <c r="F32" s="2">
+        <v>8.6999999999999993</v>
       </c>
       <c r="G32" s="2">
         <v>443</v>
@@ -1251,12 +1225,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
@@ -1265,8 +1239,8 @@
       <c r="E33" s="2">
         <v>118</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>69</v>
+      <c r="F33" s="2">
+        <v>10.6</v>
       </c>
       <c r="G33" s="2">
         <v>474</v>
@@ -1277,11 +1251,11 @@
       <c r="I33" s="2">
         <v>570</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1295,23 +1269,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1372,7 +1346,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1386,7 +1360,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1400,7 +1374,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1414,7 +1388,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1428,7 +1402,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1442,7 +1416,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1456,7 +1430,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1470,17 +1444,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1488,7 +1462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1529,7 +1503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
@@ -1567,12 +1541,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2">
@@ -1582,13 +1556,13 @@
         <v>161</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
@@ -1603,15 +1577,15 @@
         <v>664</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
@@ -1621,13 +1595,13 @@
         <v>150</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G60" s="2">
         <v>-0.4</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I60" s="2">
         <v>-23</v>
@@ -1642,15 +1616,15 @@
         <v>694</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
@@ -1660,13 +1634,13 @@
         <v>140</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G61" s="2">
         <v>-0.9</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I61" s="2">
         <v>-29</v>
@@ -1681,15 +1655,15 @@
         <v>730</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
@@ -1699,13 +1673,13 @@
         <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G62" s="2">
         <v>-1.5</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I62" s="2">
         <v>-46</v>
@@ -1720,15 +1694,15 @@
         <v>755</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
@@ -1738,13 +1712,13 @@
         <v>173</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G63" s="2">
         <v>0.4</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I63" s="2">
         <v>26</v>
@@ -1759,15 +1733,15 @@
         <v>798</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2">
@@ -1777,13 +1751,13 @@
         <v>179</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G64" s="2">
         <v>0.6</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I64" s="2">
         <v>40</v>
@@ -1798,15 +1772,15 @@
         <v>825</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2">
@@ -1816,13 +1790,13 @@
         <v>192</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I65" s="2">
         <v>83</v>
@@ -1837,26 +1811,26 @@
         <v>846</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -1866,7 +1840,7 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1907,7 +1881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>42</v>
       </c>
@@ -1945,12 +1919,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2">
@@ -1960,13 +1934,13 @@
         <v>161</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
@@ -1981,15 +1955,15 @@
         <v>881</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2">
@@ -1999,13 +1973,13 @@
         <v>161</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G76" s="2">
         <v>-0.5</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I76" s="2">
         <v>-30</v>
@@ -2020,20 +1994,20 @@
         <v>910</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>53</v>
       </c>
@@ -2044,7 +2018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>42</v>
       </c>
@@ -2055,44 +2029,44 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>54</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
         <v>55</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H83" t="s">
         <v>56</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>57</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E84" t="s">
         <v>58</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2152,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>